--- a/df_scaled.xlsx
+++ b/df_scaled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92ca9ff1cf61ae79/Escritorio/data mining/Proyecto_2/Proyecto_unsupervised_learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{40D8DBC8-417F-4B48-AD74-AC29C3D2366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98659180-0DA9-4055-803B-281884CFB890}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{40D8DBC8-417F-4B48-AD74-AC29C3D2366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6A430D0-6A90-4F91-9F62-64301E0FBFFE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{16A4D531-4FE7-4708-8C4F-6B3D34518C3A}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
-    <pivotCache cacheId="20" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -602,17 +602,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5757,340 +5754,54 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja2!$A$4:$A$60</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="50"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>48</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>6</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$4:$B$60</c:f>
+              <c:f>Hoja2!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.0107647980752501</c:v>
+                  <c:v>-12.429096226042914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0984033643823601</c:v>
+                  <c:v>6.7579072241254963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.94260146872528505</c:v>
+                  <c:v>7.1863624371824502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0886657459037901</c:v>
+                  <c:v>7.1668872002253092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.93286385024671803</c:v>
+                  <c:v>-5.7549325208330941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.263942878518</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.874438139375316</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.76732433611107898</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.72837386219681099</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.1860419306894601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.83548766546104802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.825750046982481</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.874438139375316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2873131628665599</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7352436128806401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.96597175307384597</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6378674280949701</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.13151126720948</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7157683759235101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.41390220308793</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.21914983351659</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.39442696613079</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4431150585236301</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.60865457265927</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1704617411237499</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5112783878736</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.80340694223061</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.0730855563380799</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.74784909915394504</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.74784909915394504</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.81601242850391398</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.62126005893257497</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.37781959696840001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7527713261420601E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.30965626761843001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.76732433611107898</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.874438139375316</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.47519578175407001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.54335911110403801</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.1160379131414399E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.42650768936123501</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.231755319789895</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.31939388609699698</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.84522528393961505</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.63099767741114099</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.9848471524249398E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.16748703783135199</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.43624530783980198</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.38171464435982599</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.15385437196135901</c:v>
+                  <c:v>-2.9271281146572399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6126,340 +5837,54 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja2!$A$4:$A$60</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="50"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>48</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>6</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$4:$C$60</c:f>
+              <c:f>Hoja2!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.871264633092799</c:v>
+                  <c:v>-10.970983217611858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.515807620498275</c:v>
+                  <c:v>9.4670051021008135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.98975030395763997</c:v>
+                  <c:v>6.2678919887500939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.98975030395763997</c:v>
+                  <c:v>1.9234173903725851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.871264633092799</c:v>
+                  <c:v>-3.6967529309830454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1477311984440901</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.71328373860634398</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.871264633092799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.67378851498473002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.71328373860634398</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.98975030395763997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.91075985671441295</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.71328373860634398</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.98501087712304602</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.97239146766339</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.68330549285244</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98501087712304602</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8412863873388901</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6959249023120899</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78753475901497805</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.98501087712304602</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4984487842040199</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.30097266609596</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.06400132436627</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.19510640469077201</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.62955386452852302</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.471572970042068</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.43681717325504799</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.59479806774150301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.11611595744754399</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.83176940947118505</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.67378851498473002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.19510640469077201</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.47631239687666099</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.86652520625820495</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.83176940947118505</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.871264633092799</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.59479806774150301</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.75277896222795704</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.155611181069158</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.71328373860634398</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.71328373860634398</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.35782672601181997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.55530284411988895</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.515807620498275</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.63429329136311596</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.86652520625820495</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.160350607903752</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.23460162831238601</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.155611181069158</c:v>
+                  <c:v>-2.9905783326285897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6495,340 +5920,54 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja2!$A$4:$A$60</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="50"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>48</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>6</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$D$4:$D$60</c:f>
+              <c:f>Hoja2!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.1156835225255699</c:v>
+                  <c:v>-9.3756562682411975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1939771030536801</c:v>
+                  <c:v>3.895105631273486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.88080278094123998</c:v>
+                  <c:v>3.2296101967845496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.87201853960828E-2</c:v>
+                  <c:v>9.2190691071849749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.95909636146934996</c:v>
+                  <c:v>-5.245669895383382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.42885784463801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.95909636146934996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.68506882962096405</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.1939771030536801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.15483031278963</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.80250920041313001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.45018808803663402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.21530734645230301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.95733951320275E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.58544500569423</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.8381422941440002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.78669756601378E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.60677524909285396</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.78669756601378E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.841655990677185</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21530734645230301</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4680046349020699</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.60677524909285396</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.8381422941440002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.91994957120529497</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.6637385862223399</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.2117936499191102</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.58544500569423</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.29360092698041301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.68506882962096405</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.56762845882879898</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.60677524909285396</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.60677524909285396</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.41104129777257897</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.72421561988501904</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.176160556188248</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.841655990677185</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.332747717244468</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.41104129777257897</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.13701376592419301</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.21530734645230301</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.95733951320275E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.52848166856474399</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.13701376592419301</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.95733951320275E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.13701376592419301</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.25445413671635803</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.176160556188248</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.25445413671635803</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.60677524909285396</c:v>
+                  <c:v>-1.7224587716184241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6864,340 +6003,54 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Hoja2!$A$4:$A$60</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="50"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>48</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>6</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$E$4:$E$60</c:f>
+              <c:f>Hoja2!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.28838919574198</c:v>
+                  <c:v>-16.790540201301948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6098642848276301</c:v>
+                  <c:v>5.3593008399827466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.32986985239819</c:v>
+                  <c:v>5.8466985556932496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.93580361416416902</c:v>
+                  <c:v>5.2659693625062651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.79652723978059</c:v>
+                  <c:v>-3.5300038814437329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.2631846271629898</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.98765443498443495</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.68691967422689004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.1120964049530699</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.71356592646817</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.23653837492171</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.82173180835958204</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.0083947633125401</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0345275770059601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.20045020363081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.94119609952947703</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1278590544824401</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0552679053340599</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.2108203677948599</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.13822921864649</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3248921735994501</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1278590544824401</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.04489774117001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.77527347290462401</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1693397111386501</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.27304135277918</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0345275770059601</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.0137872486778501</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.59358819675040997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.19952195851638499</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.0498754199687499</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.43803573428961101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.173803951389533</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.58861051795166497</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.25137277933665197</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.56247770425825006</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.89432295750795499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.30322360015691802</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.417295405961504</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.44342821965491902</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.38120723467059903</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.53675969713139804</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.54712986129545105</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.61432852507851698</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.13232329473332</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.73379281624841097</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.67157183126409103</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.33972657801438599</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.66120166710003803</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.43305805549086601</c:v>
+                  <c:v>3.8485753245634582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8558,16 +7411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1092476</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>20233</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99788</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>523736</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>121202</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607787</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8593,6 +7446,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10670,7 +9527,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{185DA868-87FD-43A8-992F-B5694E3CB574}" name="TablaDinámica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{185DA868-87FD-43A8-992F-B5694E3CB574}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:F8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0">
@@ -11009,10 +9866,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2D29786-425D-4400-BFD9-6DBA5D233A22}" name="TablaDinámica4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2D29786-425D-4400-BFD9-6DBA5D233A22}" name="TablaDinámica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="51">
         <item x="0"/>
         <item x="1"/>
@@ -11144,178 +10001,27 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="14"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="57">
+  <rowItems count="7">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="42"/>
-    </i>
-    <i r="1">
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
     <i>
       <x v="4"/>
     </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
     <i>
       <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
     </i>
     <i t="grand">
       <x/>
@@ -12014,19 +10720,19 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>-0.84392178597014289</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>-0.95608432508022412</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>-0.72120432832624592</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>-1.2915800154847652</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>-0.48215132259895166</v>
       </c>
     </row>
@@ -12034,19 +10740,19 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>1.8934010204201628</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>1.3515814448250993</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>0.77902112625469722</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>1.0718601679965494</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>-0.34951489928176838</v>
       </c>
     </row>
@@ -12054,19 +10760,19 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1.2535783977500188</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>1.4372724874364899</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0.64592203935690995</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>1.1693397111386499</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1.7009725098379369</v>
       </c>
     </row>
@@ -12074,19 +10780,19 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>0.38468347807451703</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>1.4333774400450618</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>1.843813821436995</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>1.0531938725012531</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>-2.3300993285451543E-2</v>
       </c>
     </row>
@@ -12094,19 +10800,19 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>-0.36967529309830455</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>-0.57549325208330937</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>-0.52456698953833825</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>-0.35300038814437329</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>1.0019427112744035</v>
       </c>
     </row>
@@ -12114,19 +10820,19 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>-0.24921486105238247</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>-0.24392734288810333</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>-0.14353823096820201</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>0.3207146103802882</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>-0.866020250442603</v>
       </c>
     </row>
@@ -12134,19 +10840,19 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>-7.105427357601002E-17</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>1.6597834218146091E-16</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1.3766765505351941E-16</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>7.8048678631148508E-16</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>2.1316282072803005E-16</v>
       </c>
     </row>
@@ -12158,15 +10864,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D5B9E6-1DAC-4E05-986E-601E8E78485F}">
-  <dimension ref="A3:E60"/>
+  <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
@@ -12205,969 +10911,119 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>-12.429096226042914</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>-10.970983217611858</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>-9.3756562682411975</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>-16.790540201301948</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-1.0107647980752501</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-0.871264633092799</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1.1156835225255699</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-1.28838919574198</v>
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.7579072241254963</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.4670051021008135</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.895105631273486</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.3593008399827466</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-1.0984033643823601</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.515807620498275</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1.1939771030536801</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-1.6098642848276301</v>
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.1863624371824502</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.2678919887500939</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.2296101967845496</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.8466985556932496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-0.94260146872528505</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.98975030395763997</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.88080278094123998</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-1.32986985239819</v>
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.1668872002253092</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.9234173903725851</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9.2190691071849749</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.2659693625062651</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-1.0886657459037901</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.98975030395763997</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.87201853960828E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.93580361416416902</v>
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-5.7549325208330941</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-3.6967529309830454</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-5.245669895383382</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-3.5300038814437329</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-0.93286385024671803</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-0.871264633092799</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.95909636146934996</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-1.79652723978059</v>
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-2.9271281146572399</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-2.9905783326285897</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-1.7224587716184241</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.8485753245634582</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-1.263942878518</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-1.1477311984440901</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1.42885784463801</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-2.2631846271629898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3">
-        <v>-0.874438139375316</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-0.71328373860634398</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-0.95909636146934996</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-0.98765443498443495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-0.76732433611107898</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-0.871264633092799</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-0.68506882962096405</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-0.68691967422689004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-0.72837386219681099</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-0.67378851498473002</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-1.1939771030536801</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-1.1120964049530699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-1.1860419306894601</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-0.71328373860634398</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-1.15483031278963</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1.71356592646817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>45</v>
-      </c>
-      <c r="B15" s="3">
-        <v>-0.83548766546104802</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-0.98975030395763997</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.80250920041313001</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1.23653837492171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3">
-        <v>-0.825750046982481</v>
-      </c>
-      <c r="C16" s="3">
-        <v>-0.91075985671441295</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.45018808803663402</v>
-      </c>
-      <c r="E16" s="3">
-        <v>-0.82173180835958204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-0.874438139375316</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-0.71328373860634398</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-0.21530734645230301</v>
-      </c>
-      <c r="E17" s="3">
-        <v>-1.0083947633125401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6.7579072241254963</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9.4670051021008135</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3.895105631273486</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.3593008399827466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1.2873131628665599</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.98501087712304602</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-1.95733951320275E-2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1.0345275770059601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1.7352436128806401</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.97239146766339</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.58544500569423</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.20045020363081</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.96597175307384597</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2.68330549285244</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2.8381422941440002</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.94119609952947703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1.6378674280949701</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.98501087712304602</v>
-      </c>
-      <c r="D22" s="3">
-        <v>9.78669756601378E-2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.1278590544824401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1.13151126720948</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2.8412863873388901</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-0.60677524909285396</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.0552679053340599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3">
-        <v>7.1863624371824502</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6.2678919887500939</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3.2296101967845496</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5.8466985556932496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.7157683759235101</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.6959249023120899</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9.78669756601378E-2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1.2108203677948599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1.41390220308793</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.78753475901497805</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.841655990677185</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1.13822921864649</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1.21914983351659</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.98501087712304602</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.21530734645230301</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.3248921735994501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1.39442696613079</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1.4984487842040199</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.4680046349020699</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1.1278590544824401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1.4431150585236301</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.30097266609596</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.60677524909285396</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1.04489774117001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3">
-        <v>7.1668872002253092</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1.9234173903725851</v>
-      </c>
-      <c r="D30" s="3">
-        <v>9.2190691071849749</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5.2659693625062651</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1.60865457265927</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.06400132436627</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2.8381422941440002</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.77527347290462401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1.1704617411237499</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.19510640469077201</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.91994957120529497</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.1693397111386501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <v>11</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1.5112783878736</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.62955386452852302</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.6637385862223399</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1.27304135277918</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>14</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1.80340694223061</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.471572970042068</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2.2117936499191102</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1.0345275770059601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1.0730855563380799</v>
-      </c>
-      <c r="C35" s="3">
-        <v>-0.43681717325504799</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1.58544500569423</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1.0137872486778501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>5</v>
-      </c>
-      <c r="B36" s="3">
-        <v>-5.7549325208330941</v>
-      </c>
-      <c r="C36" s="3">
-        <v>-3.6967529309830454</v>
-      </c>
-      <c r="D36" s="3">
-        <v>-5.245669895383382</v>
-      </c>
-      <c r="E36" s="3">
-        <v>-3.5300038814437329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
-        <v>9</v>
-      </c>
-      <c r="B37" s="3">
-        <v>-0.74784909915394504</v>
-      </c>
-      <c r="C37" s="3">
-        <v>-0.59479806774150301</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-0.29360092698041301</v>
-      </c>
-      <c r="E37" s="3">
-        <v>-0.59358819675040997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
-        <v>13</v>
-      </c>
-      <c r="B38" s="3">
-        <v>-0.74784909915394504</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.11611595744754399</v>
-      </c>
-      <c r="D38" s="3">
-        <v>-0.68506882962096405</v>
-      </c>
-      <c r="E38" s="3">
-        <v>-0.19952195851638499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
-        <v>20</v>
-      </c>
-      <c r="B39" s="3">
-        <v>-0.81601242850391398</v>
-      </c>
-      <c r="C39" s="3">
-        <v>-0.83176940947118505</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-0.56762845882879898</v>
-      </c>
-      <c r="E39" s="3">
-        <v>-1.0498754199687499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
-        <v>27</v>
-      </c>
-      <c r="B40" s="3">
-        <v>-0.62126005893257497</v>
-      </c>
-      <c r="C40" s="3">
-        <v>-0.67378851498473002</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-0.60677524909285396</v>
-      </c>
-      <c r="E40" s="3">
-        <v>-0.43803573428961101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
-        <v>33</v>
-      </c>
-      <c r="B41" s="3">
-        <v>-0.37781959696840001</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.19510640469077201</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-0.60677524909285396</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.173803951389533</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3">
-        <v>-1.7527713261420601E-2</v>
-      </c>
-      <c r="C42" s="3">
-        <v>-0.47631239687666099</v>
-      </c>
-      <c r="D42" s="3">
-        <v>-0.41104129777257897</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.58861051795166497</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
-        <v>36</v>
-      </c>
-      <c r="B43" s="3">
-        <v>-0.30965626761843001</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.86652520625820495</v>
-      </c>
-      <c r="D43" s="3">
-        <v>-0.72421561988501904</v>
-      </c>
-      <c r="E43" s="3">
-        <v>-0.25137277933665197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3">
-        <v>-0.76732433611107898</v>
-      </c>
-      <c r="C44" s="3">
-        <v>-0.83176940947118505</v>
-      </c>
-      <c r="D44" s="3">
-        <v>-0.176160556188248</v>
-      </c>
-      <c r="E44" s="3">
-        <v>-0.56247770425825006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
-        <v>47</v>
-      </c>
-      <c r="B45" s="3">
-        <v>-0.874438139375316</v>
-      </c>
-      <c r="C45" s="3">
-        <v>-0.871264633092799</v>
-      </c>
-      <c r="D45" s="3">
-        <v>-0.841655990677185</v>
-      </c>
-      <c r="E45" s="3">
-        <v>-0.89432295750795499</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3">
-        <v>-0.47519578175407001</v>
-      </c>
-      <c r="C46" s="3">
-        <v>-0.59479806774150301</v>
-      </c>
-      <c r="D46" s="3">
-        <v>-0.332747717244468</v>
-      </c>
-      <c r="E46" s="3">
-        <v>-0.30322360015691802</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>6</v>
-      </c>
-      <c r="B47" s="3">
-        <v>-2.9271281146572399</v>
-      </c>
-      <c r="C47" s="3">
-        <v>-2.9905783326285897</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-1.7224587716184241</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3.8485753245634582</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
-        <v>3</v>
-      </c>
-      <c r="B48" s="3">
-        <v>-0.54335911110403801</v>
-      </c>
-      <c r="C48" s="3">
-        <v>-0.75277896222795704</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.41104129777257897</v>
-      </c>
-      <c r="E48" s="3">
-        <v>-0.417295405961504</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
-        <v>8</v>
-      </c>
-      <c r="B49" s="3">
-        <v>3.1160379131414399E-2</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.155611181069158</v>
-      </c>
-      <c r="D49" s="3">
-        <v>-0.13701376592419301</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.44342821965491902</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
-        <v>26</v>
-      </c>
-      <c r="B50" s="3">
-        <v>-0.42650768936123501</v>
-      </c>
-      <c r="C50" s="3">
-        <v>-0.71328373860634398</v>
-      </c>
-      <c r="D50" s="3">
-        <v>-0.21530734645230301</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0.38120723467059903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
-        <v>29</v>
-      </c>
-      <c r="B51" s="3">
-        <v>-0.231755319789895</v>
-      </c>
-      <c r="C51" s="3">
-        <v>-0.71328373860634398</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1.95733951320275E-2</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.53675969713139804</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
-        <v>31</v>
-      </c>
-      <c r="B52" s="3">
-        <v>-0.31939388609699698</v>
-      </c>
-      <c r="C52" s="3">
-        <v>-0.35782672601181997</v>
-      </c>
-      <c r="D52" s="3">
-        <v>-0.52848166856474399</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.54712986129545105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
-        <v>32</v>
-      </c>
-      <c r="B53" s="3">
-        <v>-0.84522528393961505</v>
-      </c>
-      <c r="C53" s="3">
-        <v>-0.55530284411988895</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.13701376592419301</v>
-      </c>
-      <c r="E53" s="3">
-        <v>-0.61432852507851698</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
-        <v>37</v>
-      </c>
-      <c r="B54" s="3">
-        <v>-0.63099767741114099</v>
-      </c>
-      <c r="C54" s="3">
-        <v>-0.515807620498275</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1.95733951320275E-2</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.13232329473332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
-        <v>38</v>
-      </c>
-      <c r="B55" s="3">
-        <v>7.9848471524249398E-2</v>
-      </c>
-      <c r="C55" s="3">
-        <v>-0.63429329136311596</v>
-      </c>
-      <c r="D55" s="3">
-        <v>-0.13701376592419301</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.73379281624841097</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
-        <v>40</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0.16748703783135199</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.86652520625820495</v>
-      </c>
-      <c r="D56" s="3">
-        <v>-0.25445413671635803</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.67157183126409103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
-        <v>41</v>
-      </c>
-      <c r="B57" s="3">
-        <v>-0.43624530783980198</v>
-      </c>
-      <c r="C57" s="3">
-        <v>-0.160350607903752</v>
-      </c>
-      <c r="D57" s="3">
-        <v>-0.176160556188248</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0.33972657801438599</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
-        <v>42</v>
-      </c>
-      <c r="B58" s="3">
-        <v>0.38171464435982599</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.23460162831238601</v>
-      </c>
-      <c r="D58" s="3">
-        <v>-0.25445413671635803</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.66120166710003803</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="5">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3">
-        <v>-0.15385437196135901</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.155611181069158</v>
-      </c>
-      <c r="D59" s="3">
-        <v>-0.60677524909285396</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0.43305805549086601</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="3">
-        <v>8.2989171090730451E-15</v>
-      </c>
-      <c r="C60" s="3">
-        <v>-3.5527136788005009E-15</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="B10" s="4">
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>6.8833827526759706E-15</v>
       </c>
-      <c r="E60" s="3">
-        <v>3.9024339315574252E-14</v>
+      <c r="E10" s="4">
+        <v>3.9968028886505635E-14</v>
       </c>
     </row>
   </sheetData>
@@ -13181,7 +11037,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O51"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13201,7 +11057,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
@@ -13248,7 +11104,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2">
@@ -13295,7 +11151,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -13342,7 +11198,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4">
@@ -13389,7 +11245,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5">
@@ -13436,7 +11292,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6">
@@ -13483,7 +11339,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7">
@@ -13530,7 +11386,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8">
@@ -13577,7 +11433,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9">
@@ -13624,7 +11480,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10">
@@ -13671,7 +11527,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11">
@@ -13718,7 +11574,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12">
@@ -13765,7 +11621,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13">
@@ -13812,7 +11668,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14">
@@ -13859,7 +11715,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15">
@@ -13906,7 +11762,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16">
@@ -13953,7 +11809,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17">
@@ -14000,7 +11856,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18">
@@ -14047,7 +11903,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19">
@@ -14094,7 +11950,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20">
@@ -14141,7 +11997,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21">
@@ -14188,7 +12044,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22">
@@ -14235,7 +12091,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23">
@@ -14282,7 +12138,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24">
@@ -14329,7 +12185,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25">
@@ -14376,7 +12232,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26">
@@ -14423,7 +12279,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27">
@@ -14470,7 +12326,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28">
@@ -14517,7 +12373,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29">
@@ -14564,7 +12420,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30">
@@ -14611,7 +12467,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31">
@@ -14658,7 +12514,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32">
@@ -14705,7 +12561,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33">
@@ -14752,7 +12608,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34">
@@ -14799,7 +12655,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35">
@@ -14846,7 +12702,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36">
@@ -14893,7 +12749,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37">
@@ -14940,7 +12796,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38">
@@ -14987,7 +12843,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39">
@@ -15034,7 +12890,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40">
@@ -15081,7 +12937,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41">
@@ -15128,7 +12984,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42">
@@ -15175,7 +13031,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43">
@@ -15222,7 +13078,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44">
@@ -15269,7 +13125,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45">
@@ -15316,7 +13172,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46">
@@ -15363,7 +13219,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47">
@@ -15410,7 +13266,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48">
@@ -15457,7 +13313,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49">
@@ -15504,7 +13360,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50">
@@ -15551,7 +13407,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51">
